--- a/trip-calculator.xlsx
+++ b/trip-calculator.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="No Touch" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -13,42 +13,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
-    <t>Use this for the adjustments:</t>
+    <t>Use this for adjustments:</t>
   </si>
   <si>
-    <t>Copy and paste into ticket:</t>
+    <t>1. Original End Time/Date</t>
   </si>
   <si>
-    <t>Original End Time</t>
+    <t>2. Adjusted End time/Date</t>
   </si>
   <si>
-    <t>Adjusted End time</t>
-  </si>
-  <si>
-    <t>Start Time</t>
+    <t>3. Start Time/Date</t>
   </si>
   <si>
     <t>Difference</t>
   </si>
   <si>
-    <t>Use This For General Calculations:</t>
+    <t>4. Copy and paste into ticket:</t>
   </si>
   <si>
-    <t>Start Date (MM/DD/YYYY):</t>
+    <t>Use This For General Calculations (Use "Tab"):</t>
   </si>
   <si>
-    <t>End Date (MM/DD/YYYY):</t>
+    <t>1. Start Date (MM/DD/YYYY):</t>
   </si>
   <si>
-    <t>Kilometres Driven:</t>
+    <t>2. Start Time (HH:MM):</t>
   </si>
   <si>
-    <t>Start Time (HH:MM):</t>
+    <t>3. End Date</t>
   </si>
   <si>
-    <t>End Time (HH:MM):</t>
+    <t>4. End Time</t>
+  </si>
+  <si>
+    <t>4. Kilometres Driven:</t>
   </si>
   <si>
     <t>Gross Cost of Trip</t>
@@ -71,25 +71,33 @@
   <si>
     <t>Total Cost Including Tax</t>
   </si>
+  <si>
+    <t>General Calculator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
-    <numFmt numFmtId="166" formatCode="dd"/>
+    <numFmt numFmtId="166" formatCode="hh"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="hh"/>
-    <numFmt numFmtId="169" formatCode="[mm]"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="168" formatCode="[mm]"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -97,6 +105,22 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -111,32 +135,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14.0"/>
-      <color rgb="FF323232"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF777779"/>
-      <name val="Courier New"/>
-    </font>
+    <font/>
     <font>
       <b/>
       <sz val="16.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
-    <font>
-      <sz val="16.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
@@ -146,7 +154,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +165,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -172,28 +186,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -212,16 +206,10 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF31859B"/>
-      </bottom>
+      <bottom/>
     </border>
     <border>
       <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <top/>
       <bottom/>
     </border>
@@ -234,11 +222,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -268,6 +251,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom/>
     </border>
@@ -292,12 +276,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right/>
       <top/>
       <bottom style="thin">
@@ -318,74 +296,104 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="20" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="22" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="22" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="10" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="5" fontId="11" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="16" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="4" fontId="10" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="13" fillId="5" fontId="11" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="169" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -395,405 +403,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="38100" cy="504825"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5346000" y="3527588"/>
-          <a:ext cx="0" cy="504825"/>
-          <a:chOff x="5346000" y="3527588"/>
-          <a:chExt cx="0" cy="504825"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5346000" y="3527588"/>
-            <a:ext cx="0" cy="504825"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="25400">
-            <a:solidFill>
-              <a:srgbClr val="31859B"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="981075" cy="38100"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4855463" y="3780000"/>
-          <a:ext cx="981075" cy="0"/>
-          <a:chOff x="4855463" y="3780000"/>
-          <a:chExt cx="981075" cy="0"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4855463" y="3780000"/>
-            <a:ext cx="981075" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="25400">
-            <a:solidFill>
-              <a:srgbClr val="31859B"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="med" w="med" type="stealth"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="38100" cy="552450"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5346000" y="3503775"/>
-          <a:ext cx="0" cy="552450"/>
-          <a:chOff x="5346000" y="3503775"/>
-          <a:chExt cx="0" cy="552450"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Shape 5"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5346000" y="3503775"/>
-            <a:ext cx="0" cy="552450"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="25400">
-            <a:solidFill>
-              <a:srgbClr val="31859B"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="981075" cy="38100"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4855463" y="3780000"/>
-          <a:ext cx="981075" cy="0"/>
-          <a:chOff x="4855463" y="3780000"/>
-          <a:chExt cx="981075" cy="0"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4855463" y="3780000"/>
-            <a:ext cx="981075" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="25400">
-            <a:solidFill>
-              <a:srgbClr val="31859B"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="med" w="med" type="stealth"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="38100" cy="504825"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5346000" y="3527588"/>
-          <a:ext cx="0" cy="504825"/>
-          <a:chOff x="5346000" y="3527588"/>
-          <a:chExt cx="0" cy="504825"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5346000" y="3527588"/>
-            <a:ext cx="0" cy="504825"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="25400">
-            <a:solidFill>
-              <a:srgbClr val="31859B"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="981075" cy="38100"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4855463" y="3780000"/>
-          <a:ext cx="981075" cy="0"/>
-          <a:chOff x="4855463" y="3780000"/>
-          <a:chExt cx="981075" cy="0"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4855463" y="3780000"/>
-            <a:ext cx="981075" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="25400">
-            <a:solidFill>
-              <a:srgbClr val="31859B"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="med" w="med" type="stealth"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="38100" cy="552450"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5346000" y="3503775"/>
-          <a:ext cx="0" cy="552450"/>
-          <a:chOff x="5346000" y="3503775"/>
-          <a:chExt cx="0" cy="552450"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Shape 5"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5346000" y="3503775"/>
-            <a:ext cx="0" cy="552450"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="25400">
-            <a:solidFill>
-              <a:srgbClr val="31859B"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="981075" cy="38100"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4855463" y="3780000"/>
-          <a:ext cx="981075" cy="0"/>
-          <a:chOff x="4855463" y="3780000"/>
-          <a:chExt cx="981075" cy="0"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4855463" y="3780000"/>
-            <a:ext cx="981075" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="25400">
-            <a:solidFill>
-              <a:srgbClr val="31859B"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="med" w="med" type="stealth"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,9 +618,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.75"/>
-    <col customWidth="1" min="2" max="2" width="37.63"/>
-    <col customWidth="1" min="3" max="3" width="9.25"/>
+    <col customWidth="1" min="1" max="2" width="32.75"/>
+    <col customWidth="1" min="3" max="3" width="25.5"/>
     <col customWidth="1" min="4" max="4" width="27.5"/>
     <col customWidth="1" min="5" max="5" width="29.63"/>
     <col customWidth="1" min="6" max="6" width="7.63"/>
@@ -1015,299 +628,1574 @@
     <col customWidth="1" min="9" max="26" width="7.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.25" customHeight="1">
+    <row r="1" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>" -Unadjusted trip charge "&amp;TEXT(Sheet2!B2,"h:mm")&amp;"-"&amp;TEXT(Sheet2!E2,"h:mm")&amp;" = $"&amp;ROUND(Sheet2!D14,2)&amp;"
--Adjusted Trip Charge "&amp;TEXT(Sheet2!K2,"h:mm")&amp;"-"&amp;TEXT(Sheet2!N2,"h:mm")&amp;" = $"&amp;ROUND(Sheet2!M14,2)&amp;"
--Difference = $"&amp;ROUND((Sheet2!D14-Sheet2!M14),2)</f>
-        <v> -Unadjusted trip charge 4:00-14:45 = $102.36
--Adjusted Trip Charge 4:00-5:00 = $16.79
--Difference = $85.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B5" si="1">TIME(HOUR(NOW()),MINUTE(NOW()),SECOND(NOW()))</f>
+        <v>0.9096875</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C5" si="2">TODAY()</f>
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.6145833333333334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.9096875</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="2"/>
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.9096875</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="2"/>
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6">
+        <f>'No Touch'!B12-'No Touch'!F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
-        <f>Sheet2!D14-Sheet2!M14</f>
-        <v>85.575</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="8" t="str">
+        <f>" -Unadjusted trip charge "&amp;TEXT('No Touch'!A2,"h:mm")&amp;"-"&amp;TEXT('No Touch'!B2,"h:mm")&amp;" = $"&amp;ROUND('No Touch'!B12,2)&amp;"
+-Adjusted Trip Charge "&amp;TEXT('No Touch'!E2,"h:mm")&amp;"-"&amp;TEXT('No Touch'!F2,"h:mm")&amp;" = $"&amp;ROUND('No Touch'!F12,2)&amp;"
+-Difference = $"&amp;ROUND(('No Touch'!B12-'No Touch'!F12),2)</f>
+        <v> -Unadjusted trip charge 21:49-21:49 = $0
+-Adjusted Trip Charge 21:49-21:49 = $0
+-Difference = $0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="E9" s="5"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11">
         <f>TODAY()</f>
         <v>44516</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
-        <f>TODAY()</f>
+      <c r="B11" s="12">
+        <f>TIME(HOUR(NOW()),MINUTE(NOW()),SECOND(NOW()))</f>
+        <v>0.9096875</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11">
+        <f>A11</f>
         <v>44516</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6" t="s">
+      <c r="B13" s="12">
+        <f>TIME(HOUR(NOW()),MINUTE(NOW()),SECOND(NOW()))</f>
+        <v>0.9096875</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="str">
+        <f>'No Touch'!A19</f>
+        <v>0 day(s) 0 hour(s) 0 minute(s)</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="14" t="str">
-        <f>TEXT(B10,"mmmm dd, yyyy   ")&amp;TEXT(B11,"hh:mm")</f>
-        <v>November 16, 2021   23:00</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="14" t="str">
-        <f>TEXT(E10,"mmmm dd, yyyy   ")&amp;TEXT(E11,"hh:mm")</f>
-        <v>November 16, 2021   04:00</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="18" t="str">
-        <f>IF(AND(DATEDIF(B13,E13,"d")&gt;1,MINUTE(E13)&lt;MINUTE(B13),HOUR(E13)=0,HOUR(B13)=0),DATEDIF(B13,E13,"d")-1,IF(AND(DATEDIF(B13,E13,"d")&gt;1, HOUR(E13-B13)&gt;=12,HOUR(E13)&gt;HOUR(B13)),DATEDIF(B13,E13,"d"),IF(AND(DATEDIF(B13,E13,"d")&gt;1,HOUR(E13)&lt;HOUR(B13)), DATEDIF(B13,E13,"d")-1,IF(AND(DATEDIF(B13,E13,"d")=1,MINUTE(E13)&lt;MINUTE(B13),HOUR(E13)=0,HOUR(B13)=0),DATEDIF(B13,E13,"d")-1,IF(AND(DATEDIF(B13,E13,"d")=1,HOUR(E13-B13)&gt;=6,HOUR(E13)&gt;HOUR(B13),HOUR(E13)&gt;11),DATEDIF(B13,E13,"d"),IF(AND(DATEDIF(B13,E13,"d")=1,HOUR(E13)&lt;HOUR(B13)),DATEDIF(B13,E13,"d")-1,DATEDIF(B13,E13,"d"))))))) &amp; " day(s) " &amp;HOUR(E13-B13) &amp; " hour(s) " &amp;(MINUTE(E13-B13)&amp;" minute(s)")</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="8"/>
+      <c r="A17" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="24">
+        <f>'No Touch'!B20</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="26">
+        <f>'No Touch'!B21</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="30">
+        <f>'No Touch'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="32">
+        <f>'No Touch'!B23</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="32">
+        <f>'No Touch'!B24</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="26">
+        <f>'No Touch'!B25</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="34">
+        <f>'No Touch'!B26</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.63"/>
+    <col customWidth="1" min="2" max="2" width="17.13"/>
+    <col customWidth="1" min="3" max="3" width="14.0"/>
+    <col customWidth="1" min="4" max="4" width="27.5"/>
+    <col customWidth="1" min="5" max="5" width="16.75"/>
+    <col customWidth="1" min="6" max="26" width="7.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="36">
+        <f>Sheet1!C5</f>
+        <v>44516</v>
+      </c>
+      <c r="B1" s="36">
+        <f>Sheet1!C3</f>
+        <v>44516</v>
+      </c>
+      <c r="C1" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="E1" s="36">
+        <f>Sheet1!C5</f>
+        <v>44516</v>
+      </c>
+      <c r="F1" s="36">
+        <f>Sheet1!C4</f>
+        <v>44516</v>
+      </c>
+      <c r="G1" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="38">
+        <f>Sheet1!B5</f>
+        <v>0.9096875</v>
+      </c>
+      <c r="B2" s="38">
+        <f>Sheet1!B3</f>
+        <v>0.9096875</v>
+      </c>
+      <c r="E2" s="38">
+        <f>Sheet1!B5</f>
+        <v>0.9096875</v>
+      </c>
+      <c r="F2" s="38">
+        <f>Sheet1!B4</f>
+        <v>0.9096875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="str">
+        <f t="shared" ref="A4:B4" si="1">TEXT(A1,"mmmm dd, yyyy   ")&amp;TEXT(A2,"hh:mm")</f>
+        <v>November 16, 2021   21:49</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>November 16, 2021   21:49</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" ref="E4:F4" si="2">TEXT(E1,"mmmm dd, yyyy   ")&amp;TEXT(E2,"hh:mm")</f>
+        <v>November 16, 2021   21:49</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>November 16, 2021   21:49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="str">
+        <f>IF(AND(DATEDIF(A4,B4,"d")&gt;1,MINUTE(B4)&lt;MINUTE(A4),HOUR(B4)=0,HOUR(A4)=0),DATEDIF(A4,B4,"d")-1,IF(AND(DATEDIF(A4,B4,"d")&gt;1, HOUR(B4-A4)&gt;=12,HOUR(B4)&gt;HOUR(A4)),DATEDIF(A4,B4,"d"),IF(AND(DATEDIF(A4,B4,"d")&gt;1,HOUR(B4)&lt;HOUR(A4)), DATEDIF(A4,B4,"d")-1,IF(AND(DATEDIF(A4,B4,"d")=1,MINUTE(B4)&lt;MINUTE(A4),HOUR(B4)=0,HOUR(A4)=0),DATEDIF(A4,B4,"d")-1,IF(AND(DATEDIF(A4,B4,"d")=1,HOUR(B4-A4)&gt;=6,HOUR(B4)&gt;HOUR(A4),HOUR(B4)&gt;11),DATEDIF(A4,B4,"d"),IF(AND(DATEDIF(A4,B4,"d")=1,HOUR(B4)&lt;HOUR(A4)),DATEDIF(A4,B4,"d")-1,DATEDIF(A4,B4,"d"))))))) &amp; " day(s) " &amp;HOUR(B4-A4) &amp; " hour(s) " &amp;(MINUTE(B4-A4)&amp;" minute(s)")</f>
+        <v>0 day(s) 0 hour(s) 0 minute(s)</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>IF(AND(DATEDIF(E4,F4,"d")&gt;1,MINUTE(F4)&lt;MINUTE(E4),HOUR(F4)=0,HOUR(E4)=0),DATEDIF(E4,F4,"d")-1,IF(AND(DATEDIF(E4,F4,"d")&gt;1, HOUR(F4-E4)&gt;=12,HOUR(F4)&gt;HOUR(E4)),DATEDIF(E4,F4,"d"),IF(AND(DATEDIF(E4,F4,"d")&gt;1,HOUR(F4)&lt;HOUR(E4)), DATEDIF(E4,F4,"d")-1,IF(AND(DATEDIF(E4,F4,"d")=1,MINUTE(F4)&lt;MINUTE(E4),HOUR(F4)=0,HOUR(E4)=0),DATEDIF(E4,F4,"d")-1,IF(AND(DATEDIF(E4,F4,"d")=1,HOUR(F4-E4)&gt;=6,HOUR(F4)&gt;HOUR(E4),HOUR(F4)&gt;11),DATEDIF(E4,F4,"d"),IF(AND(DATEDIF(E4,F4,"d")=1,HOUR(F4)&lt;HOUR(E4)),DATEDIF(E4,F4,"d")-1,DATEDIF(E4,F4,"d"))))))) &amp; " day(s) " &amp;HOUR(F4-E4) &amp; " hour(s) " &amp;(MINUTE(F4-E4)&amp;" minute(s)")</f>
+        <v>0 day(s) 0 hour(s) 0 minute(s)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25" t="str">
-        <f>IF(AND(DATEDIF(B13,E13,"d")&lt;1,HOUR(E13-B13)&lt;6,MINUTE(E13-B13)&lt;37),HOUR(E13-B13)*14.99+MINUTE(E13-B13)*0.41,IF(AND(DATEDIF(B13,E13,"d")&lt;1,HOUR(E13-B13)&lt;6,MINUTE(E13-B13)&gt;36),HOUR(E13-B13)*14.99+14.99,IF(AND(DATEDIF(B13,E13,"d")=1,HOUR(E13-B13)&gt;=6,HOUR(B13)&lt;12,HOUR(E13)&gt;=12,HOUR(E13)&gt;HOUR(B13)),2*89.99,IF(AND(DATEDIF(B13,E13,"d")&lt;1,HOUR(E13-B13)&gt;=6),1*89.99,IF(AND(DATEDIF(B13,E13,"d")=1,HOUR(B13)&gt;18,HOUR(E13)&lt;6,HOUR(E13-B13)&lt;6),HOUR(E13-B13)*14.99+IF(MINUTE(E13-B13)&lt;37,MINUTE(E13-B13)*0.41,1*14.99),IF(AND(DATEDIF(B13,E13,"d")=1,DAY(E13-B13)&gt;=1,HOUR(E13-B13)&lt;6),1*89.99+HOUR(E13-B13)*14.99+IF(MINUTE(E13-B13)&lt;37,MINUTE(E13-B13)*0.41,1*14.99),IF(AND(DATEDIF(B13,E13,"d")&gt;1,DAY(E13-B13)&gt;=1,HOUR(E13-B13)&lt;6),DATEDIF(B13,E13,"d")*89.99-89.99+HOUR(E13-B13)*14.99+IF(MINUTE(E13-B13)&lt;37,MINUTE(E13-B13)*0.41,1*14.99),IF(AND(DATEDIF(B13,E13,"d")=1,DAY(E13-B13)&lt;1,HOUR(E13-B13)&lt;6),HOUR(E13-B13)*14.99+IF(MINUTE(E13-B13)&lt;37,MINUTE(E13-B13)*0.41,1*14.99),IF(AND(DATEDIF(B13,E13,"d")&gt;=1,HOUR(E13-B13)&lt;6,HOUR(E13-B13)&gt;=0,MINUTE(E13-B13)&gt;36),DATEDIF(B13,E13,"d")*89.99+HOUR(E13-B13)*14.99+1*14.99,IF(AND(DATEDIF(B13,E13,"d")=1,HOUR(E13-B13)&gt;=6,HOUR(E13-B13)&gt;=12),DATEDIF(B13,E13,"d")*89.99,IF(AND(DATEDIF(B13,E13,"d")&gt;1,HOUR(E13-B13)&gt;=12,HOUR(E13)&gt;HOUR(B13)),DATEDIF(B13,E13,"d")*89.99+89.99,IF(AND(DATEDIF(B13,E13,"d")&gt;1,HOUR(E13-B13)&gt;=6,HOUR(E13)&gt;HOUR(B13)),DATEDIF(B13,E13,"d")*89.99+89.99,IF(AND(DATEDIF(B13,E13,"d")&gt;1,HOUR(E13-B13)&gt;=6,HOUR(E13)&lt;HOUR(B13)),DATEDIF(B13,E13,"d")*89.99,IF(AND(DATEDIF(B13,E13,"d")=1,HOUR(E13-B13)&gt;=6,HOUR(E13)&gt;HOUR(B13)),DATEDIF(B13,E13,"d")*89.99+89.99,IF(AND(DATEDIF(B13,E13,"d")&gt;=2,HOUR(E13-B13)&gt;=6,HOUR(E13)=0),DATEDIF(B13,E13,"d")*89.99,IF(AND(DATEDIF(B13,E13,"d")&gt;=2,HOUR(E13-B13)&lt;6,HOUR(B13)&gt;18,HOUR(E13)&lt;6),DATEDIF(B13,E13,"d")*89.99-89.99+HOUR(E13-B13)*14.99+IF(MINUTE(E13-B13)&lt;37,MINUTE(E13-B13)*0.41,1*14.99),IF(AND(DATEDIF(B13,E13,"d")&gt;=2,HOUR(E13-B13)&lt;6,HOUR(B13)&lt;=20,HOUR(E13)&gt;=6),DATEDIF(B13,E13,"d")*89.99+HOUR(E13-B13)*14.99+IF(MINUTE(E13-B13)&lt;37,MINUTE(E13-B13)*0.41,1*14.99),IF(AND(DATEDIF(B13,E13,"d")&gt;1,HOUR(E13-B13)&lt;6,HOUR(E13)&gt;HOUR(B13)),DATEDIF(B13,E13,"d")*89.99+HOUR(E13-B13)*14.99+IF(MINUTE(E13-B13)&lt;37,MINUTE(E13-B13)*0.41,1*14.99),DATEDIF(B13,E13,"d")*89.99))))))))))))))))))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="B6" s="39">
+        <f>IF(AND(DATEDIF(A4,B4,"d")&lt;1,HOUR(B4-A4)&lt;6,MINUTE(B4-A4)&lt;37),HOUR(B4-A4)*14.99+MINUTE(B4-A4)*0.41,IF(AND(DATEDIF(A4,B4,"d")&lt;1,HOUR(B4-A4)&lt;6,MINUTE(B4-A4)&gt;36),HOUR(B4-A4)*14.99+14.99,IF(AND(DATEDIF(A4,B4,"d")=1,HOUR(B4-A4)&gt;=6,HOUR(A4)&lt;12,HOUR(B4)&gt;=12,HOUR(B4)&gt;HOUR(A4)),2*89.99,IF(AND(DATEDIF(A4,B4,"d")&lt;1,HOUR(B4-A4)&gt;=6),1*89.99,IF(AND(DATEDIF(A4,B4,"d")=1,HOUR(A4)&gt;18,HOUR(B4)&lt;6,HOUR(B4-A4)&lt;6),HOUR(B4-A4)*14.99+IF(MINUTE(B4-A4)&lt;37,MINUTE(B4-A4)*0.41,1*14.99),IF(AND(DATEDIF(A4,B4,"d")=1,DAY(B4-A4)&gt;=1,HOUR(B4-A4)&lt;6),1*89.99+HOUR(B4-A4)*14.99+IF(MINUTE(B4-A4)&lt;37,MINUTE(B4-A4)*0.41,1*14.99),IF(AND(DATEDIF(A4,B4,"d")&gt;1,DAY(B4-A4)&gt;=1,HOUR(B4-A4)&lt;6),DATEDIF(A4,B4,"d")*89.99-89.99+HOUR(B4-A4)*14.99+IF(MINUTE(B4-A4)&lt;37,MINUTE(B4-A4)*0.41,1*14.99),IF(AND(DATEDIF(A4,B4,"d")=1,DAY(B4-A4)&lt;1,HOUR(B4-A4)&lt;6),HOUR(B4-A4)*14.99+IF(MINUTE(B4-A4)&lt;37,MINUTE(B4-A4)*0.41,1*14.99),IF(AND(DATEDIF(A4,B4,"d")&gt;=1,HOUR(B4-A4)&lt;6,HOUR(B4-A4)&gt;=0,MINUTE(B4-A4)&gt;36),DATEDIF(A4,B4,"d")*89.99+HOUR(B4-A4)*14.99+1*14.99,IF(AND(DATEDIF(A4,B4,"d")=1,HOUR(B4-A4)&gt;=6,HOUR(B4-A4)&gt;=12),DATEDIF(A4,B4,"d")*89.99,IF(AND(DATEDIF(A4,B4,"d")&gt;1,HOUR(B4-A4)&gt;=12,HOUR(B4)&gt;HOUR(A4)),DATEDIF(A4,B4,"d")*89.99+89.99,IF(AND(DATEDIF(A4,B4,"d")&gt;1,HOUR(B4-A4)&gt;=6,HOUR(B4)&gt;HOUR(A4)),DATEDIF(A4,B4,"d")*89.99+89.99,IF(AND(DATEDIF(A4,B4,"d")&gt;1,HOUR(B4-A4)&gt;=6,HOUR(B4)&lt;HOUR(A4)),DATEDIF(A4,B4,"d")*89.99,IF(AND(DATEDIF(A4,B4,"d")=1,HOUR(B4-A4)&gt;=6,HOUR(B4)&gt;HOUR(A4)),DATEDIF(A4,B4,"d")*89.99+89.99,IF(AND(DATEDIF(A4,B4,"d")&gt;=2,HOUR(B4-A4)&gt;=6,HOUR(B4)=0),DATEDIF(A4,B4,"d")*89.99,IF(AND(DATEDIF(A4,B4,"d")&gt;=2,HOUR(B4-A4)&lt;6,HOUR(A4)&gt;18,HOUR(B4)&lt;6),DATEDIF(A4,B4,"d")*89.99-89.99+HOUR(B4-A4)*14.99+IF(MINUTE(B4-A4)&lt;37,MINUTE(B4-A4)*0.41,1*14.99),IF(AND(DATEDIF(A4,B4,"d")&gt;=2,HOUR(B4-A4)&lt;6,HOUR(A4)&lt;=20,HOUR(B4)&gt;=6),DATEDIF(A4,B4,"d")*89.99+HOUR(B4-A4)*14.99+IF(MINUTE(B4-A4)&lt;37,MINUTE(B4-A4)*0.41,1*14.99),IF(AND(DATEDIF(A4,B4,"d")&gt;1,HOUR(B4-A4)&lt;6,HOUR(B4)&gt;HOUR(A4)),DATEDIF(A4,B4,"d")*89.99+HOUR(B4-A4)*14.99+IF(MINUTE(B4-A4)&lt;37,MINUTE(B4-A4)*0.41,1*14.99),DATEDIF(A4,B4,"d")*89.99))))))))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="39">
+        <f>IF(AND(DATEDIF(E4,F4,"d")&lt;1,HOUR(F4-E4)&lt;6,MINUTE(F4-E4)&lt;37),HOUR(F4-E4)*14.99+MINUTE(F4-E4)*0.41,IF(AND(DATEDIF(E4,F4,"d")&lt;1,HOUR(F4-E4)&lt;6,MINUTE(F4-E4)&gt;36),HOUR(F4-E4)*14.99+14.99,IF(AND(DATEDIF(E4,F4,"d")=1,HOUR(F4-E4)&gt;=6,HOUR(E4)&lt;12,HOUR(F4)&gt;=12,HOUR(F4)&gt;HOUR(E4)),2*89.99,IF(AND(DATEDIF(E4,F4,"d")&lt;1,HOUR(F4-E4)&gt;=6),1*89.99,IF(AND(DATEDIF(E4,F4,"d")=1,HOUR(E4)&gt;18,HOUR(F4)&lt;6,HOUR(F4-E4)&lt;6),HOUR(F4-E4)*14.99+IF(MINUTE(F4-E4)&lt;37,MINUTE(F4-E4)*0.41,1*14.99),IF(AND(DATEDIF(E4,F4,"d")=1,DAY(F4-E4)&gt;=1,HOUR(F4-E4)&lt;6),1*89.99+HOUR(F4-E4)*14.99+IF(MINUTE(F4-E4)&lt;37,MINUTE(F4-E4)*0.41,1*14.99),IF(AND(DATEDIF(E4,F4,"d")&gt;1,DAY(F4-E4)&gt;=1,HOUR(F4-E4)&lt;6),DATEDIF(E4,F4,"d")*89.99-89.99+HOUR(F4-E4)*14.99+IF(MINUTE(F4-E4)&lt;37,MINUTE(F4-E4)*0.41,1*14.99),IF(AND(DATEDIF(E4,F4,"d")=1,DAY(F4-E4)&lt;1,HOUR(F4-E4)&lt;6),HOUR(F4-E4)*14.99+IF(MINUTE(F4-E4)&lt;37,MINUTE(F4-E4)*0.41,1*14.99),IF(AND(DATEDIF(E4,F4,"d")&gt;=1,HOUR(F4-E4)&lt;6,HOUR(F4-E4)&gt;=0,MINUTE(F4-E4)&gt;36),DATEDIF(E4,F4,"d")*89.99+HOUR(F4-E4)*14.99+1*14.99,IF(AND(DATEDIF(E4,F4,"d")=1,HOUR(F4-E4)&gt;=6,HOUR(F4-E4)&gt;=12),DATEDIF(E4,F4,"d")*89.99,IF(AND(DATEDIF(E4,F4,"d")&gt;1,HOUR(F4-E4)&gt;=12,HOUR(F4)&gt;HOUR(E4)),DATEDIF(E4,F4,"d")*89.99+89.99,IF(AND(DATEDIF(E4,F4,"d")&gt;1,HOUR(F4-E4)&gt;=6,HOUR(F4)&gt;HOUR(E4)),DATEDIF(E4,F4,"d")*89.99+89.99,IF(AND(DATEDIF(E4,F4,"d")&gt;1,HOUR(F4-E4)&gt;=6,HOUR(F4)&lt;HOUR(E4)),DATEDIF(E4,F4,"d")*89.99,IF(AND(DATEDIF(E4,F4,"d")=1,HOUR(F4-E4)&gt;=6,HOUR(F4)&gt;HOUR(E4)),DATEDIF(E4,F4,"d")*89.99+89.99,IF(AND(DATEDIF(E4,F4,"d")&gt;=2,HOUR(F4-E4)&gt;=6,HOUR(F4)=0),DATEDIF(E4,F4,"d")*89.99,IF(AND(DATEDIF(E4,F4,"d")&gt;=2,HOUR(F4-E4)&lt;6,HOUR(E4)&gt;18,HOUR(F4)&lt;6),DATEDIF(E4,F4,"d")*89.99-89.99+HOUR(F4-E4)*14.99+IF(MINUTE(F4-E4)&lt;37,MINUTE(F4-E4)*0.41,1*14.99),IF(AND(DATEDIF(E4,F4,"d")&gt;=2,HOUR(F4-E4)&lt;6,HOUR(E4)&lt;=20,HOUR(F4)&gt;=6),DATEDIF(E4,F4,"d")*89.99+HOUR(F4-E4)*14.99+IF(MINUTE(F4-E4)&lt;37,MINUTE(F4-E4)*0.41,1*14.99),IF(AND(DATEDIF(E4,F4,"d")&gt;1,HOUR(F4-E4)&lt;6,HOUR(F4)&gt;HOUR(E4)),DATEDIF(E4,F4,"d")*89.99+HOUR(F4-E4)*14.99+IF(MINUTE(F4-E4)&lt;37,MINUTE(F4-E4)*0.41,1*14.99),DATEDIF(E4,F4,"d")*89.99))))))))))))))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="39">
+        <f>IF(C1&gt;200,(C1-200)*0.45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="39">
+        <f>IF(G1&gt;200,(G1-200)*0.45,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="39">
+        <f>SUM(B6:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="39">
+        <f>SUM(F6:F7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="39">
+        <f>B8*0.12</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="39">
+        <f>F8*0.12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="39">
+        <f>IF(AND(HOUR(A4)&lt;=HOUR(B4),HOUR(B4-A4)&gt;=8,DATEDIF(A4,B4,"D")=0),1.5,IF(AND(DATEDIF(A4,B4,"D")&gt;=1,HOUR(A4)&lt;&gt;HOUR(B4),HOUR(B4-A4)&gt;=8),DATEDIF(A4,B4,"D")*1.5+1.5,IF(AND(DATEDIF(A4,B4,"D")&gt;=1,HOUR(A4)&lt;&gt;HOUR(B4),HOUR(A4)&lt;HOUR(B4)),DATEDIF(A4,B4,"D")*1.5+1.5,IF(AND(DATEDIF(A4,B4,"D")&gt;=1,HOUR(A4)=HOUR(B4)),DATEDIF(A4,B4,"D")*1.5+1.5,IF(AND(DATEDIF(A4,B4,"D")&gt;=1,HOUR(A4)=0,HOUR(B4)=0),DATEDIF(A4,B4,"D")*1.5,IF(AND(DATEDIF(A4,B4,"D")=1,HOUR(A4)&gt;16, HOUR(B4)&lt;8,HOUR(B4-A4)&lt;&gt;0),0,IF(AND(DATEDIF(A4,B4,"D")&gt;1,HOUR(A4)&lt;&gt;HOUR(B4),HOUR(A4)&gt;HOUR(B4)),DATEDIF(A4,B4,"D")*1.5+1.5,0)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="39">
+        <f>IF(AND(HOUR(E4)&lt;=HOUR(F4),HOUR(F4-E4)&gt;=8,DATEDIF(E4,F4,"D")=0),1.5,IF(AND(DATEDIF(E4,F4,"D")&gt;=1,HOUR(E4)&lt;&gt;HOUR(F4),HOUR(F4-E4)&gt;=8),DATEDIF(E4,F4,"D")*1.5+1.5,IF(AND(DATEDIF(E4,F4,"D")&gt;=1,HOUR(E4)&lt;&gt;HOUR(F4),HOUR(E4)&lt;HOUR(F4)),DATEDIF(E4,F4,"D")*1.5+1.5,IF(AND(DATEDIF(E4,F4,"D")&gt;=1,HOUR(E4)=HOUR(F4)),DATEDIF(E4,F4,"D")*1.5+1.5,IF(AND(DATEDIF(E4,F4,"D")&gt;=1,HOUR(E4)=0,HOUR(F4)=0),DATEDIF(E4,F4,"D")*1.5,IF(AND(DATEDIF(E4,F4,"D")=1,HOUR(E4)&gt;16, HOUR(F4)&lt;8,HOUR(F4-E4)&lt;&gt;0),0,IF(AND(DATEDIF(E4,F4,"D")&gt;1,HOUR(E4)&lt;&gt;HOUR(F4),HOUR(E4)&gt;HOUR(F4)),DATEDIF(E4,F4,"D")*1.5+1.5,0)))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="39">
+        <f>B10*0.05</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="39">
+        <f>F10*0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="39">
+        <f>SUM(B8:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="39">
+        <f>SUM(F8:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="str">
+        <f>TEXT(Sheet1!A11,"mmmm dd, yyyy   ")&amp;TEXT(Sheet1!B11,"hh:mm")</f>
+        <v>November 16, 2021   21:49</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>TEXT(Sheet1!A13,"mmmm dd, yyyy   ")&amp;TEXT(Sheet1!B13,"hh:mm")</f>
+        <v>November 16, 2021   21:49</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="40" t="str">
+        <f>IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;1,MINUTE('No Touch'!B18)&lt;MINUTE('No Touch'!A18),HOUR('No Touch'!B18)=0,HOUR('No Touch'!A18)=0),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")-1,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;1, HOUR('No Touch'!B18-'No Touch'!A18)&gt;=12,HOUR('No Touch'!B18)&gt;HOUR('No Touch'!A18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"d"),IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;1,HOUR('No Touch'!B18)&lt;HOUR('No Touch'!A18)), DATEDIF('No Touch'!A18,'No Touch'!B18,"d")-1,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,MINUTE('No Touch'!B18)&lt;MINUTE('No Touch'!A18),HOUR('No Touch'!B18)=0,HOUR('No Touch'!A18)=0),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")-1,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=6,HOUR('No Touch'!B18)&gt;HOUR('No Touch'!A18),HOUR('No Touch'!B18)&gt;11),DATEDIF('No Touch'!A18,'No Touch'!B18,"d"),IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,HOUR('No Touch'!B18)&lt;HOUR('No Touch'!A18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")-1,DATEDIF('No Touch'!A18,'No Touch'!B18,"d"))))))) &amp; " day(s) " &amp;HOUR('No Touch'!B18-'No Touch'!A18) &amp; " hour(s) " &amp;(MINUTE('No Touch'!B18-'No Touch'!A18)&amp;" minute(s)")</f>
+        <v>0 day(s) 0 hour(s) 0 minute(s)</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="39">
+        <f>IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&lt;1,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6,MINUTE('No Touch'!B18-'No Touch'!A18)&lt;37),HOUR('No Touch'!B18-'No Touch'!A18)*14.99+MINUTE('No Touch'!B18-'No Touch'!A18)*0.41,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&lt;1,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6,MINUTE('No Touch'!B18-'No Touch'!A18)&gt;36),HOUR('No Touch'!B18-'No Touch'!A18)*14.99+14.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=6,HOUR('No Touch'!A18)&lt;12,HOUR('No Touch'!B18)&gt;=12,HOUR('No Touch'!B18)&gt;HOUR('No Touch'!A18)),2*89.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&lt;1,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=6),1*89.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,HOUR('No Touch'!A18)&gt;18,HOUR('No Touch'!B18)&lt;6,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6),HOUR('No Touch'!B18-'No Touch'!A18)*14.99+IF(MINUTE('No Touch'!B18-'No Touch'!A18)&lt;37,MINUTE('No Touch'!B18-'No Touch'!A18)*0.41,1*14.99),IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,DAY('No Touch'!B18-'No Touch'!A18)&gt;=1,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6),1*89.99+HOUR('No Touch'!B18-'No Touch'!A18)*14.99+IF(MINUTE('No Touch'!B18-'No Touch'!A18)&lt;37,MINUTE('No Touch'!B18-'No Touch'!A18)*0.41,1*14.99),IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;1,DAY('No Touch'!B18-'No Touch'!A18)&gt;=1,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99-89.99+HOUR('No Touch'!B18-'No Touch'!A18)*14.99+IF(MINUTE('No Touch'!B18-'No Touch'!A18)&lt;37,MINUTE('No Touch'!B18-'No Touch'!A18)*0.41,1*14.99),IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,DAY('No Touch'!B18-'No Touch'!A18)&lt;1,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6),HOUR('No Touch'!B18-'No Touch'!A18)*14.99+IF(MINUTE('No Touch'!B18-'No Touch'!A18)&lt;37,MINUTE('No Touch'!B18-'No Touch'!A18)*0.41,1*14.99),IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;=1,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=0,MINUTE('No Touch'!B18-'No Touch'!A18)&gt;36),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99+HOUR('No Touch'!B18-'No Touch'!A18)*14.99+1*14.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=6,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=12),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;1,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=12,HOUR('No Touch'!B18)&gt;HOUR('No Touch'!A18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99+89.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;1,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=6,HOUR('No Touch'!B18)&gt;HOUR('No Touch'!A18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99+89.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;1,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=6,HOUR('No Touch'!B18)&lt;HOUR('No Touch'!A18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")=1,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=6,HOUR('No Touch'!B18)&gt;HOUR('No Touch'!A18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99+89.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;=2,HOUR('No Touch'!B18-'No Touch'!A18)&gt;=6,HOUR('No Touch'!B18)=0),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;=2,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6,HOUR('No Touch'!A18)&gt;18,HOUR('No Touch'!B18)&lt;6),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99-89.99+HOUR('No Touch'!B18-'No Touch'!A18)*14.99+IF(MINUTE('No Touch'!B18-'No Touch'!A18)&lt;37,MINUTE('No Touch'!B18-'No Touch'!A18)*0.41,1*14.99),IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;=2,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6,HOUR('No Touch'!A18)&lt;=20,HOUR('No Touch'!B18)&gt;=6),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99+HOUR('No Touch'!B18-'No Touch'!A18)*14.99+IF(MINUTE('No Touch'!B18-'No Touch'!A18)&lt;37,MINUTE('No Touch'!B18-'No Touch'!A18)*0.41,1*14.99),IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"d")&gt;1,HOUR('No Touch'!B18-'No Touch'!A18)&lt;6,HOUR('No Touch'!B18)&gt;HOUR('No Touch'!A18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99+HOUR('No Touch'!B18-'No Touch'!A18)*14.99+IF(MINUTE('No Touch'!B18-'No Touch'!A18)&lt;37,MINUTE('No Touch'!B18-'No Touch'!A18)*0.41,1*14.99),DATEDIF('No Touch'!A18,'No Touch'!B18,"d")*89.99))))))))))))))))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="27">
-        <f>IF(H10&gt;200,(H10-200)*0.45,0)</f>
+      <c r="B21" s="39">
+        <f>IF(Sheet1!A17&gt;200,(Sheet1!A17-200)*0.45,0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="29" t="str">
-        <f>SUM(D20:D21)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="30" t="str">
-        <f>IF(AND(HOUR(B13)&lt;=HOUR(E13),HOUR(E13-B13)&gt;=6,DATEDIF(B13,E13,"D")=0),1.5,IF(AND(DATEDIF(B13,E13,"D")&gt;=1,HOUR(B13)&lt;&gt;HOUR(E13),HOUR(E13-B13)&gt;=6),DATEDIF(B13,E13,"D")*1.5+1.5,IF(AND(DATEDIF(B13,E13,"D")&gt;=1,HOUR(B13)&lt;&gt;HOUR(E13),HOUR(B13)&lt;HOUR(E13)),DATEDIF(B13,E13,"D")*1.5+1.5,IF(AND(DATEDIF(B13,E13,"D")&gt;=1,HOUR(B13)=HOUR(E13)),DATEDIF(B13,E13,"D")*1.5+1.5,IF(AND(DATEDIF(B13,E13,"D")&gt;=1,HOUR(B13)=0,HOUR(E13)=0),DATEDIF(B13,E13,"D")*1.5,IF(AND(DATEDIF(B13,E13,"D")=1,HOUR(B13)&gt;18, HOUR(E13)&lt;6,HOUR(E13-B13)&lt;&gt;0),0,IF(AND(DATEDIF(B13,E13,"D")&gt;1,HOUR(B13)&lt;&gt;HOUR(E13),HOUR(B13)&gt;HOUR(E13)),DATEDIF(B13,E13,"D")*1.5+1.5,0)))))))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="39">
+        <f>SUM(B20:B21)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="32" t="str">
-        <f>D22*0.12</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="39">
+        <f>B22*0.12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="32" t="str">
-        <f>IF(AND(HOUR(B13)&lt;=HOUR(E13),HOUR(E13-B13)&gt;=8,DATEDIF(B13,E13,"D")=0),1.5,IF(AND(DATEDIF(B13,E13,"D")&gt;=1,HOUR(B13)&lt;&gt;HOUR(E13),HOUR(E13-B13)&gt;=8),DATEDIF(B13,E13,"D")*1.5+1.5,IF(AND(DATEDIF(B13,E13,"D")&gt;=1,HOUR(B13)&lt;&gt;HOUR(E13),HOUR(B13)&lt;HOUR(E13)),DATEDIF(B13,E13,"D")*1.5+1.5,IF(AND(DATEDIF(B13,E13,"D")&gt;=1,HOUR(B13)=HOUR(E13)),DATEDIF(B13,E13,"D")*1.5+1.5,IF(AND(DATEDIF(B13,E13,"D")&gt;=1,HOUR(B13)=0,HOUR(E13)=0),DATEDIF(B13,E13,"D")*1.5,IF(AND(DATEDIF(B13,E13,"D")=1,HOUR(B13)&gt;16, HOUR(E13)&lt;8,HOUR(E13-B13)&lt;&gt;0),0,IF(AND(DATEDIF(B13,E13,"D")&gt;1,HOUR(B13)&lt;&gt;HOUR(E13),HOUR(B13)&gt;HOUR(E13)),DATEDIF(B13,E13,"D")*1.5+1.5,0)))))))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="39">
+        <f>IF(AND(HOUR('No Touch'!A18)&lt;=HOUR('No Touch'!B18),HOUR('No Touch'!B18-'No Touch'!A18)&gt;=8,DATEDIF('No Touch'!A18,'No Touch'!B18,"D")=0),1.5,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"D")&gt;=1,HOUR('No Touch'!A18)&lt;&gt;HOUR('No Touch'!B18),HOUR('No Touch'!B18-'No Touch'!A18)&gt;=8),DATEDIF('No Touch'!A18,'No Touch'!B18,"D")*1.5+1.5,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"D")&gt;=1,HOUR('No Touch'!A18)&lt;&gt;HOUR('No Touch'!B18),HOUR('No Touch'!A18)&lt;HOUR('No Touch'!B18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"D")*1.5+1.5,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"D")&gt;=1,HOUR('No Touch'!A18)=HOUR('No Touch'!B18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"D")*1.5+1.5,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"D")&gt;=1,HOUR('No Touch'!A18)=0,HOUR('No Touch'!B18)=0),DATEDIF('No Touch'!A18,'No Touch'!B18,"D")*1.5,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"D")=1,HOUR('No Touch'!A18)&gt;16, HOUR('No Touch'!B18)&lt;8,HOUR('No Touch'!B18-'No Touch'!A18)&lt;&gt;0),0,IF(AND(DATEDIF('No Touch'!A18,'No Touch'!B18,"D")&gt;1,HOUR('No Touch'!A18)&lt;&gt;HOUR('No Touch'!B18),HOUR('No Touch'!A18)&gt;HOUR('No Touch'!B18)),DATEDIF('No Touch'!A18,'No Touch'!B18,"D")*1.5+1.5,0)))))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="27" t="str">
-        <f>D24*0.05</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="39">
+        <f>B24*0.05</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35" t="str">
-        <f>SUM(D22:D25)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="39">
+        <f>SUM(B22:B25)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -2284,1408 +3172,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="7.63"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="8.75"/>
-    <col customWidth="1" min="5" max="10" width="7.63"/>
-    <col customWidth="1" min="11" max="13" width="8.0"/>
-    <col customWidth="1" min="14" max="26" width="7.63"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7">
-        <v>42386.0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="7">
-        <v>42386.0</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7">
-        <v>42386.0</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7">
-        <v>42386.0</v>
-      </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11">
-        <f>Sheet1!C5</f>
-        <v>0.1666666667</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="11">
-        <f>Sheet1!C3</f>
-        <v>0.6145833333</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="11">
-        <f>Sheet1!C5</f>
-        <v>0.1666666667</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="11">
-        <f>Sheet1!C4</f>
-        <v>0.2083333333</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="14" t="str">
-        <f>TEXT(B1,"mmmm dd, yyyy   ")&amp;TEXT(B2,"hh:mm")</f>
-        <v>January 17, 2016   04:00</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="14" t="str">
-        <f>TEXT(E1,"mmmm dd, yyyy   ")&amp;TEXT(E2,"hh:mm")</f>
-        <v>January 17, 2016   14:45</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="14" t="str">
-        <f>TEXT(K1,"mmmm dd, yyyy   ")&amp;TEXT(K2,"hh:mm")</f>
-        <v>January 17, 2016   04:00</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="14" t="str">
-        <f>TEXT(N1,"mmmm dd, yyyy   ")&amp;TEXT(N2,"hh:mm")</f>
-        <v>January 17, 2016   05:00</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="18" t="str">
-        <f>IF(AND(DATEDIF(B4,E4,"d")&gt;1,MINUTE(E4)&lt;MINUTE(B4),HOUR(E4)=0,HOUR(B4)=0),DATEDIF(B4,E4,"d")-1,IF(AND(DATEDIF(B4,E4,"d")&gt;1, HOUR(E4-B4)&gt;=12,HOUR(E4)&gt;HOUR(B4)),DATEDIF(B4,E4,"d"),IF(AND(DATEDIF(B4,E4,"d")&gt;1,HOUR(E4)&lt;HOUR(B4)), DATEDIF(B4,E4,"d")-1,IF(AND(DATEDIF(B4,E4,"d")=1,MINUTE(E4)&lt;MINUTE(B4),HOUR(E4)=0,HOUR(B4)=0),DATEDIF(B4,E4,"d")-1,IF(AND(DATEDIF(B4,E4,"d")=1,HOUR(E4-B4)&gt;=6,HOUR(E4)&gt;HOUR(B4),HOUR(E4)&gt;11),DATEDIF(B4,E4,"d"),IF(AND(DATEDIF(B4,E4,"d")=1,HOUR(E4)&lt;HOUR(B4)),DATEDIF(B4,E4,"d")-1,DATEDIF(B4,E4,"d"))))))) &amp; " day(s) " &amp;HOUR(E4-B4) &amp; " hour(s) " &amp;(MINUTE(E4-B4)&amp;" minute(s)")</f>
-        <v>0 day(s) 10 hour(s) 45 minute(s)</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="18" t="str">
-        <f>IF(AND(DATEDIF(K4,N4,"d")&gt;1,MINUTE(N4)&lt;MINUTE(K4),HOUR(N4)=0,HOUR(K4)=0),DATEDIF(K4,N4,"d")-1,IF(AND(DATEDIF(K4,N4,"d")&gt;1, HOUR(N4-K4)&gt;=12,HOUR(N4)&gt;HOUR(K4)),DATEDIF(K4,N4,"d"),IF(AND(DATEDIF(K4,N4,"d")&gt;1,HOUR(N4)&lt;HOUR(K4)), DATEDIF(K4,N4,"d")-1,IF(AND(DATEDIF(K4,N4,"d")=1,MINUTE(N4)&lt;MINUTE(K4),HOUR(N4)=0,HOUR(K4)=0),DATEDIF(K4,N4,"d")-1,IF(AND(DATEDIF(K4,N4,"d")=1,HOUR(N4-K4)&gt;=6,HOUR(N4)&gt;HOUR(K4),HOUR(N4)&gt;11),DATEDIF(K4,N4,"d"),IF(AND(DATEDIF(K4,N4,"d")=1,HOUR(N4)&lt;HOUR(K4)),DATEDIF(K4,N4,"d")-1,DATEDIF(K4,N4,"d"))))))) &amp; " day(s) " &amp;HOUR(N4-K4) &amp; " hour(s) " &amp;(MINUTE(N4-K4)&amp;" minute(s)")</f>
-        <v>0 day(s) 1 hour(s) 0 minute(s)</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="36">
-        <f>IF(AND(DATEDIF(B4,E4,"d")&lt;1,HOUR(E4-B4)&lt;6,MINUTE(E4-B4)&lt;37),HOUR(E4-B4)*14.99+MINUTE(E4-B4)*0.41,IF(AND(DATEDIF(B4,E4,"d")&lt;1,HOUR(E4-B4)&lt;6,MINUTE(E4-B4)&gt;36),HOUR(E4-B4)*14.99+14.99,IF(AND(DATEDIF(B4,E4,"d")=1,HOUR(E4-B4)&gt;=6,HOUR(B4)&lt;12,HOUR(E4)&gt;=12,HOUR(E4)&gt;HOUR(B4)),2*89.99,IF(AND(DATEDIF(B4,E4,"d")&lt;1,HOUR(E4-B4)&gt;=6),1*89.99,IF(AND(DATEDIF(B4,E4,"d")=1,HOUR(B4)&gt;18,HOUR(E4)&lt;6,HOUR(E4-B4)&lt;6),HOUR(E4-B4)*14.99+IF(MINUTE(E4-B4)&lt;37,MINUTE(E4-B4)*0.41,1*14.99),IF(AND(DATEDIF(B4,E4,"d")=1,DAY(E4-B4)&gt;=1,HOUR(E4-B4)&lt;6),1*89.99+HOUR(E4-B4)*14.99+IF(MINUTE(E4-B4)&lt;37,MINUTE(E4-B4)*0.41,1*14.99),IF(AND(DATEDIF(B4,E4,"d")&gt;1,DAY(E4-B4)&gt;=1,HOUR(E4-B4)&lt;6),DATEDIF(B4,E4,"d")*89.99-89.99+HOUR(E4-B4)*14.99+IF(MINUTE(E4-B4)&lt;37,MINUTE(E4-B4)*0.41,1*14.99),IF(AND(DATEDIF(B4,E4,"d")=1,DAY(E4-B4)&lt;1,HOUR(E4-B4)&lt;6),HOUR(E4-B4)*14.99+IF(MINUTE(E4-B4)&lt;37,MINUTE(E4-B4)*0.41,1*14.99),IF(AND(DATEDIF(B4,E4,"d")&gt;=1,HOUR(E4-B4)&lt;6,HOUR(E4-B4)&gt;=0,MINUTE(E4-B4)&gt;36),DATEDIF(B4,E4,"d")*89.99+HOUR(E4-B4)*14.99+1*14.99,IF(AND(DATEDIF(B4,E4,"d")=1,HOUR(E4-B4)&gt;=6,HOUR(E4-B4)&gt;=12),DATEDIF(B4,E4,"d")*89.99,IF(AND(DATEDIF(B4,E4,"d")&gt;1,HOUR(E4-B4)&gt;=12,HOUR(E4)&gt;HOUR(B4)),DATEDIF(B4,E4,"d")*89.99+89.99,IF(AND(DATEDIF(B4,E4,"d")&gt;1,HOUR(E4-B4)&gt;=6,HOUR(E4)&gt;HOUR(B4)),DATEDIF(B4,E4,"d")*89.99+89.99,IF(AND(DATEDIF(B4,E4,"d")&gt;1,HOUR(E4-B4)&gt;=6,HOUR(E4)&lt;HOUR(B4)),DATEDIF(B4,E4,"d")*89.99,IF(AND(DATEDIF(B4,E4,"d")=1,HOUR(E4-B4)&gt;=6,HOUR(E4)&gt;HOUR(B4)),DATEDIF(B4,E4,"d")*89.99+89.99,IF(AND(DATEDIF(B4,E4,"d")&gt;=2,HOUR(E4-B4)&gt;=6,HOUR(E4)=0),DATEDIF(B4,E4,"d")*89.99,IF(AND(DATEDIF(B4,E4,"d")&gt;=2,HOUR(E4-B4)&lt;6,HOUR(B4)&gt;18,HOUR(E4)&lt;6),DATEDIF(B4,E4,"d")*89.99-89.99+HOUR(E4-B4)*14.99+IF(MINUTE(E4-B4)&lt;37,MINUTE(E4-B4)*0.41,1*14.99),IF(AND(DATEDIF(B4,E4,"d")&gt;=2,HOUR(E4-B4)&lt;6,HOUR(B4)&lt;=20,HOUR(E4)&gt;=6),DATEDIF(B4,E4,"d")*89.99+HOUR(E4-B4)*14.99+IF(MINUTE(E4-B4)&lt;37,MINUTE(E4-B4)*0.41,1*14.99),IF(AND(DATEDIF(B4,E4,"d")&gt;1,HOUR(E4-B4)&lt;6,HOUR(E4)&gt;HOUR(B4)),DATEDIF(B4,E4,"d")*89.99+HOUR(E4-B4)*14.99+IF(MINUTE(E4-B4)&lt;37,MINUTE(E4-B4)*0.41,1*14.99),DATEDIF(B4,E4,"d")*89.99))))))))))))))))))</f>
-        <v>89.99</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="36">
-        <f>IF(AND(DATEDIF(K4,N4,"d")&lt;1,HOUR(N4-K4)&lt;6,MINUTE(N4-K4)&lt;37),HOUR(N4-K4)*14.99+MINUTE(N4-K4)*0.41,IF(AND(DATEDIF(K4,N4,"d")&lt;1,HOUR(N4-K4)&lt;6,MINUTE(N4-K4)&gt;36),HOUR(N4-K4)*14.99+14.99,IF(AND(DATEDIF(K4,N4,"d")=1,HOUR(N4-K4)&gt;=6,HOUR(K4)&lt;12,HOUR(N4)&gt;=12,HOUR(N4)&gt;HOUR(K4)),2*89.99,IF(AND(DATEDIF(K4,N4,"d")&lt;1,HOUR(N4-K4)&gt;=6),1*89.99,IF(AND(DATEDIF(K4,N4,"d")=1,HOUR(K4)&gt;18,HOUR(N4)&lt;6,HOUR(N4-K4)&lt;6),HOUR(N4-K4)*14.99+IF(MINUTE(N4-K4)&lt;37,MINUTE(N4-K4)*0.41,1*14.99),IF(AND(DATEDIF(K4,N4,"d")=1,DAY(N4-K4)&gt;=1,HOUR(N4-K4)&lt;6),1*89.99+HOUR(N4-K4)*14.99+IF(MINUTE(N4-K4)&lt;37,MINUTE(N4-K4)*0.41,1*14.99),IF(AND(DATEDIF(K4,N4,"d")&gt;1,DAY(N4-K4)&gt;=1,HOUR(N4-K4)&lt;6),DATEDIF(K4,N4,"d")*89.99-89.99+HOUR(N4-K4)*14.99+IF(MINUTE(N4-K4)&lt;37,MINUTE(N4-K4)*0.41,1*14.99),IF(AND(DATEDIF(K4,N4,"d")=1,DAY(N4-K4)&lt;1,HOUR(N4-K4)&lt;6),HOUR(N4-K4)*14.99+IF(MINUTE(N4-K4)&lt;37,MINUTE(N4-K4)*0.41,1*14.99),IF(AND(DATEDIF(K4,N4,"d")&gt;=1,HOUR(N4-K4)&lt;6,HOUR(N4-K4)&gt;=0,MINUTE(N4-K4)&gt;36),DATEDIF(K4,N4,"d")*89.99+HOUR(N4-K4)*14.99+1*14.99,IF(AND(DATEDIF(K4,N4,"d")=1,HOUR(N4-K4)&gt;=6,HOUR(N4-K4)&gt;=12),DATEDIF(K4,N4,"d")*89.99,IF(AND(DATEDIF(K4,N4,"d")&gt;1,HOUR(N4-K4)&gt;=12,HOUR(N4)&gt;HOUR(K4)),DATEDIF(K4,N4,"d")*89.99+89.99,IF(AND(DATEDIF(K4,N4,"d")&gt;1,HOUR(N4-K4)&gt;=6,HOUR(N4)&gt;HOUR(K4)),DATEDIF(K4,N4,"d")*89.99+89.99,IF(AND(DATEDIF(K4,N4,"d")&gt;1,HOUR(N4-K4)&gt;=6,HOUR(N4)&lt;HOUR(K4)),DATEDIF(K4,N4,"d")*89.99,IF(AND(DATEDIF(K4,N4,"d")=1,HOUR(N4-K4)&gt;=6,HOUR(N4)&gt;HOUR(K4)),DATEDIF(K4,N4,"d")*89.99+89.99,IF(AND(DATEDIF(K4,N4,"d")&gt;=2,HOUR(N4-K4)&gt;=6,HOUR(N4)=0),DATEDIF(K4,N4,"d")*89.99,IF(AND(DATEDIF(K4,N4,"d")&gt;=2,HOUR(N4-K4)&lt;6,HOUR(K4)&gt;18,HOUR(N4)&lt;6),DATEDIF(K4,N4,"d")*89.99-89.99+HOUR(N4-K4)*14.99+IF(MINUTE(N4-K4)&lt;37,MINUTE(N4-K4)*0.41,1*14.99),IF(AND(DATEDIF(K4,N4,"d")&gt;=2,HOUR(N4-K4)&lt;6,HOUR(K4)&lt;=20,HOUR(N4)&gt;=6),DATEDIF(K4,N4,"d")*89.99+HOUR(N4-K4)*14.99+IF(MINUTE(N4-K4)&lt;37,MINUTE(N4-K4)*0.41,1*14.99),IF(AND(DATEDIF(K4,N4,"d")&gt;1,HOUR(N4-K4)&lt;6,HOUR(N4)&gt;HOUR(K4)),DATEDIF(K4,N4,"d")*89.99+HOUR(N4-K4)*14.99+IF(MINUTE(N4-K4)&lt;37,MINUTE(N4-K4)*0.41,1*14.99),DATEDIF(K4,N4,"d")*89.99))))))))))))))))))</f>
-        <v>14.99</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="37">
-        <f>IF(H1&gt;200,(H1-200)*0.45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="37">
-        <f>IF(Q1&gt;200,(Q1-200)*0.45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="29">
-        <f>SUM(D8:D9)</f>
-        <v>89.99</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="29">
-        <f>SUM(M8:M9)</f>
-        <v>14.99</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="38">
-        <f>D10*0.12</f>
-        <v>10.7988</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="38">
-        <f>M10*0.12</f>
-        <v>1.7988</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="38">
-        <f>IF(AND(HOUR(B4)&lt;=HOUR(E4),HOUR(E4-B4)&gt;=8,DATEDIF(B4,E4,"D")=0),1.5,IF(AND(DATEDIF(B4,E4,"D")&gt;=1,HOUR(B4)&lt;&gt;HOUR(E4),HOUR(E4-B4)&gt;=8),DATEDIF(B4,E4,"D")*1.5+1.5,IF(AND(DATEDIF(B4,E4,"D")&gt;=1,HOUR(B4)&lt;&gt;HOUR(E4),HOUR(B4)&lt;HOUR(E4)),DATEDIF(B4,E4,"D")*1.5+1.5,IF(AND(DATEDIF(B4,E4,"D")&gt;=1,HOUR(B4)=HOUR(E4)),DATEDIF(B4,E4,"D")*1.5+1.5,IF(AND(DATEDIF(B4,E4,"D")&gt;=1,HOUR(B4)=0,HOUR(E4)=0),DATEDIF(B4,E4,"D")*1.5,IF(AND(DATEDIF(B4,E4,"D")=1,HOUR(B4)&gt;16, HOUR(E4)&lt;8,HOUR(E4-B4)&lt;&gt;0),0,IF(AND(DATEDIF(B4,E4,"D")&gt;1,HOUR(B4)&lt;&gt;HOUR(E4),HOUR(B4)&gt;HOUR(E4)),DATEDIF(B4,E4,"D")*1.5+1.5,0)))))))</f>
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="38">
-        <f>IF(AND(HOUR(K4)&lt;=HOUR(N4),HOUR(N4-K4)&gt;=8,DATEDIF(K4,N4,"D")=0),1.5,IF(AND(DATEDIF(K4,N4,"D")&gt;=1,HOUR(K4)&lt;&gt;HOUR(N4),HOUR(N4-K4)&gt;=8),DATEDIF(K4,N4,"D")*1.5+1.5,IF(AND(DATEDIF(K4,N4,"D")&gt;=1,HOUR(K4)&lt;&gt;HOUR(N4),HOUR(K4)&lt;HOUR(N4)),DATEDIF(K4,N4,"D")*1.5+1.5,IF(AND(DATEDIF(K4,N4,"D")&gt;=1,HOUR(K4)=HOUR(N4)),DATEDIF(K4,N4,"D")*1.5+1.5,IF(AND(DATEDIF(K4,N4,"D")&gt;=1,HOUR(K4)=0,HOUR(N4)=0),DATEDIF(K4,N4,"D")*1.5,IF(AND(DATEDIF(K4,N4,"D")=1,HOUR(K4)&gt;16, HOUR(N4)&lt;8,HOUR(N4-K4)&lt;&gt;0),0,IF(AND(DATEDIF(K4,N4,"D")&gt;1,HOUR(K4)&lt;&gt;HOUR(N4),HOUR(K4)&gt;HOUR(N4)),DATEDIF(K4,N4,"D")*1.5+1.5,0)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="37">
-        <f>D12*0.05</f>
-        <v>0.075</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="37">
-        <f>M12*0.05</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35">
-        <f>SUM(D10:D13)</f>
-        <v>102.3638</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35">
-        <f>SUM(M10:M13)</f>
-        <v>16.7888</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
